--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2335132.208968339</v>
+        <v>-2337868.521989573</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>291.0756362472036</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>196.5501500659891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>117.1139748739553</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>26.64388856309268</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>63.69001051091617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.3707686638727</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.5711540783794</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>26.30660220273189</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>274.816346182513</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>164.8097755779796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>9.551072556622325</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.15392480244338</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>75.58612131501458</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587633</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740351</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541849</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652581</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4144,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
         <v>141.2394908002292</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24678656800311</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>614.4634113777688</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1609.533101323898</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1386.554620518634</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1386.554620518634</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>1131.870132312747</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>842.4529622757861</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>614.4634113777688</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>614.4634113777688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786115</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.291963913589</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.291963913589</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>743.8747938766288</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8852429786115</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8852429786115</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.273454230226</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="C8" t="n">
-        <v>1323.273454230226</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.273454230226</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>937.4852016319819</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294348</v>
+        <v>2343.946138968987</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.8623399222008</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C10" t="n">
-        <v>235.8623399222008</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>85.74570050986512</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>85.74570050986512</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>85.74570050986512</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>85.74570050986512</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1560.096502584583</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1363.467754744444</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329314</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959707</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="X10" t="n">
-        <v>638.3033838959707</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.5108047524405</v>
+        <v>919.6966947956497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397187</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194326</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,28 +5987,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,28 +6124,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
         <v>483.825546038073</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,10 +6701,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,19 +6950,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954144</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380723</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,10 +7372,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213313</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247062</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796383</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175646</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.757116639391</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315928</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119782</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729352</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176795</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912512</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660666</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337794</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654576</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612654</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229215</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.920990213812</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519666</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275435</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.333946200131</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.87434226377</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081896</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7658,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,13 +7807,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7822,7 +7822,7 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>98.24448441976904</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-7.914712739834623e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-9.99992358246728e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>63.60740537347937</v>
       </c>
       <c r="E2" t="n">
-        <v>340.538925135682</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22598,7 +22598,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.6908186514239</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>50.13284622467254</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129118</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833678</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26323,37 +26323,37 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450028</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25907.59795980395</v>
+        <v>25907.59795980398</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,25 +26424,25 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.42449670732</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707383</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707383</v>
-      </c>
       <c r="I4" t="n">
-        <v>14888.28375980079</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="J4" t="n">
         <v>14888.28375980082</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.2837598008</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
@@ -26451,10 +26451,10 @@
         <v>14888.28375980084</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980082</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201831.001322845</v>
+        <v>-1202295.29811487</v>
       </c>
       <c r="C6" t="n">
         <v>-183795.4107782555</v>
@@ -26528,40 +26528,40 @@
         <v>-183795.4107782555</v>
       </c>
       <c r="E6" t="n">
-        <v>-575148.0659606603</v>
+        <v>-575182.8038860959</v>
       </c>
       <c r="F6" t="n">
-        <v>-67662.62433611415</v>
+        <v>-67697.3622615498</v>
       </c>
       <c r="G6" t="n">
-        <v>-67662.6243361142</v>
+        <v>-67697.36226155001</v>
       </c>
       <c r="H6" t="n">
-        <v>-67662.62433611421</v>
+        <v>-67697.36226154986</v>
       </c>
       <c r="I6" t="n">
-        <v>-96428.02911413374</v>
+        <v>-96428.02911413379</v>
       </c>
       <c r="J6" t="n">
         <v>-244605.4889304846</v>
       </c>
       <c r="K6" t="n">
-        <v>-77000.31112050201</v>
+        <v>-77000.31112050207</v>
       </c>
       <c r="L6" t="n">
+        <v>-77000.31112050204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-209607.6048494288</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-96428.02911413375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-77000.31112050213</v>
+      </c>
+      <c r="P6" t="n">
         <v>-77000.31112050203</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-209607.6048494286</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-96428.02911413382</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-77000.31112050207</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-77000.31112050201</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.39144493657977</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.0185717986448</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>98.36307299960788</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6667845776742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>153.5253779792054</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.41080793868758</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>242.0662701637319</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>376.6868660994313</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>113.0975843526855</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>25.97145110455905</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.331285330561</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955532</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,13 +33421,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849409</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681188</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807094</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>465.1758167018095</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124453946</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35662,7 +35662,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156791</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980852</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845515</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37069,13 +37069,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016076</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
